--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmgun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\demo\poi-demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,39 +38,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${msg}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${msg1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${msg2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${createDate}</t>
+    <t>I'm title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.msg}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.msg1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.msg2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c.createDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dateUtil.converToDate(c.createDate, 'yyyyMMdd')}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${tanslateUtil.getConstantName('ConstantTest', c.constantVal)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,12 +141,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,53 +431,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -74,15 +74,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${dateUtil.converToDate(c.createDate, 'yyyyMMdd')}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常量枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${tanslateUtil.getConstantName('ConstantTest', c.constantVal)}</t>
+    <t>${dateUtil.converToDate(c.strCreateDate, 'yyyyMMdd')}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${translateUtil.getConstantName('ConstantTest', c.constantVal)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -496,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${dateUtil.converToDate(c.strCreateDate, 'yyyyMMdd')}</t>
+    <t>${dateUtil.convertToDate(c.strCreateDate, 'yyyyMMdd')}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
